--- a/data/trans_bre/P07_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P07_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.177376645865371</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.874098675221587</v>
+        <v>8.874098675221584</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1148524277448727</v>
@@ -649,7 +649,7 @@
         <v>0.3771469556486879</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3771469886219417</v>
+        <v>0.3771469886219416</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.300218007339632</v>
+        <v>-4.75636507951339</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.476288143727781</v>
+        <v>7.227075153437244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.31670746901172</v>
+        <v>1.042660514381511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.650786887524192</v>
+        <v>3.315877327680688</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2303345203485893</v>
+        <v>-0.2566827413910817</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2453701605929318</v>
+        <v>0.2613690344736568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05630197465543353</v>
+        <v>0.03822700328904176</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.08819605907489356</v>
+        <v>0.122175338540078</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.981687562350972</v>
+        <v>8.952563542794646</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.80480568206931</v>
+        <v>23.52466989254664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.6501758241277</v>
+        <v>17.05758215070379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.10103959311611</v>
+        <v>15.25510658338822</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6757105104751059</v>
+        <v>0.6776016106275581</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.094127498530072</v>
+        <v>1.143957660376357</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8155321557998643</v>
+        <v>0.8115822239080617</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7564129117123729</v>
+        <v>0.7719138086661876</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.862900507070989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.744586008923081</v>
+        <v>3.744586008923079</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8482838521506162</v>
@@ -749,7 +749,7 @@
         <v>0.5399911347160756</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2536243006359445</v>
+        <v>0.2536243006359443</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.307209841939793</v>
+        <v>9.456640722648942</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.884463490381908</v>
+        <v>8.337831651166178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.963658216582945</v>
+        <v>3.011142242338219</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6749795781331651</v>
+        <v>-0.690326686207293</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4749376010391528</v>
+        <v>0.4639658650743408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4309213179748961</v>
+        <v>0.404124804871082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1754932750035866</v>
+        <v>0.1897931911245311</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03444502567444752</v>
+        <v>-0.04669813196420447</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.92666142512471</v>
+        <v>20.16616704049527</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.51962918583726</v>
+        <v>18.91287577576494</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.27268243439514</v>
+        <v>13.26926053290503</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.823058859993366</v>
+        <v>7.997343314765399</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.3516038007228</v>
+        <v>1.357481577438233</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.332087981593048</v>
+        <v>1.289231651177564</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.075487592359144</v>
+        <v>1.109398363552251</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.652008275770019</v>
+        <v>0.6641541653002389</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.711421467440756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.452496155694897</v>
+        <v>2.452496155694889</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.232608027888739</v>
@@ -849,7 +849,7 @@
         <v>0.2865104951786698</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1251491641741091</v>
+        <v>0.1251491641741087</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>10.9773365287886</v>
+        <v>11.20320881521897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.045079149449476</v>
+        <v>0.842431453889909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.112070501906056</v>
+        <v>-1.905598135887473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.814065787969242</v>
+        <v>-3.09891145902961</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6229651561228324</v>
+        <v>0.6211916990957971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05331311593145809</v>
+        <v>0.03835262496174353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1302718330989991</v>
+        <v>-0.1282647663806122</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1223152749798643</v>
+        <v>-0.1369410160352472</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.48033824474869</v>
+        <v>24.15809280404277</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.58661792002534</v>
+        <v>13.67163293788393</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.336182682841221</v>
+        <v>9.365439577353092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.364938002188566</v>
+        <v>7.670608040520929</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.061696560506527</v>
+        <v>2.078773498199722</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.012107105789678</v>
+        <v>1.050900040003111</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8831922789353637</v>
+        <v>0.8793940867152328</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4409351001085187</v>
+        <v>0.4537948180168844</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>12.07845455218057</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.757844873492861</v>
+        <v>6.757844873492866</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.437451296276673</v>
@@ -949,7 +949,7 @@
         <v>0.644674078636728</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3542035692275258</v>
+        <v>0.3542035692275261</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.46039368522629</v>
+        <v>10.37167437101512</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.185365418580401</v>
+        <v>7.949023851577255</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.581563244295477</v>
+        <v>5.808157082035708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.731911885084761</v>
+        <v>0.9945379145533007</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7499135989192518</v>
+        <v>0.7080032757404742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3180369311485748</v>
+        <v>0.3494249939405177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2515863144580929</v>
+        <v>0.2579735017749264</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02743476947327427</v>
+        <v>0.03368226360822583</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.80277872375475</v>
+        <v>21.65828710251039</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>20.65764898673115</v>
+        <v>21.4018239874877</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.47369779064951</v>
+        <v>18.48903032181474</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.11100086182725</v>
+        <v>13.37576361167213</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.432913618149687</v>
+        <v>2.494807850538689</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.324836453368653</v>
+        <v>1.33517461091354</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.146358107479943</v>
+        <v>1.192715963189716</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8508503339243305</v>
+        <v>0.8646811166160718</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.707779241724348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.817407123352442</v>
+        <v>8.817407123352439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7015320841028236</v>
@@ -1049,7 +1049,7 @@
         <v>0.271221122127238</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9321818911055092</v>
+        <v>0.9321818911055086</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.320619915764701</v>
+        <v>6.265379532105674</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.338875833465942</v>
+        <v>6.216690738426281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.740076463572029</v>
+        <v>-3.763638825141356</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.930412083305701</v>
+        <v>4.389253082925773</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2190208812071331</v>
+        <v>0.2585934687799827</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2471527996949006</v>
+        <v>0.2974514777004361</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1109090928815798</v>
+        <v>-0.1602125745643773</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.316285594622299</v>
+        <v>0.3562897393797593</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.99843161570382</v>
+        <v>23.87143459282664</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.69025986149964</v>
+        <v>23.14008050072689</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.39988109401323</v>
+        <v>13.65210161524861</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.05761869831351</v>
+        <v>13.67577829877119</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.320814132842621</v>
+        <v>1.545090962750576</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.829646751557421</v>
+        <v>1.920264866294581</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.786425304374828</v>
+        <v>0.7729470575860526</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.843267905943649</v>
+        <v>1.959705414318259</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>6.3844871031184</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.928231930232177</v>
+        <v>4.92823193023216</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.537819856564625</v>
@@ -1149,7 +1149,7 @@
         <v>0.3660214872183196</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2217507249734546</v>
+        <v>0.2217507249734539</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>12.85822845113649</v>
+        <v>12.99352318356528</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7379949074712427</v>
+        <v>0.8191973929649368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.044331153303804</v>
+        <v>-1.141540339377939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.9091244206348255</v>
+        <v>-0.2308241959951764</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8025775308126392</v>
+        <v>0.789446767072284</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0277493372916955</v>
+        <v>0.02714264556663192</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0448816151389866</v>
+        <v>-0.05929606896819184</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.03642748779896028</v>
+        <v>-0.01208360076855955</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>26.80349144295455</v>
+        <v>27.53832040670625</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.5366698588197</v>
+        <v>14.66653915101677</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.05438690270071</v>
+        <v>13.95031035803016</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.41172732013873</v>
+        <v>10.64735172963747</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.632364836375087</v>
+        <v>2.826595709305377</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9276722958507836</v>
+        <v>0.9151305487208202</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9426993077824186</v>
+        <v>1.001448145875899</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5177303096750571</v>
+        <v>0.559681759023324</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.6776407252800083</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.618761625920944</v>
+        <v>0.6187616259209441</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.02081174152896</v>
+        <v>10.08022263531729</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.613843332474739</v>
+        <v>4.191104449430838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.401304627894042</v>
+        <v>4.925887006672245</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.46693852944262</v>
+        <v>4.92309189081007</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.612132441437609</v>
+        <v>0.6312267204857337</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2090782958985873</v>
+        <v>0.2377167642506973</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3306833554902507</v>
+        <v>0.290169204656398</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3294772047362186</v>
+        <v>0.2797941243090815</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.05629868250127</v>
+        <v>18.95133331845376</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.88106391973335</v>
+        <v>12.69245895994348</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.47600018865423</v>
+        <v>14.01272610377101</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.84963248523098</v>
+        <v>12.73403629714769</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.59211238078828</v>
+        <v>1.603719591006408</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9843205584194927</v>
+        <v>0.9879284157151001</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.183990046186766</v>
+        <v>1.123220302536169</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.009666495181326</v>
+        <v>0.9904194559095969</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.604645284910874</v>
+        <v>3.431562420981183</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.322559459673921</v>
+        <v>2.414828257146414</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.590106900859844</v>
+        <v>4.739359143592551</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.785051194134303</v>
+        <v>5.067041011365061</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1884098170927802</v>
+        <v>0.1805012369542604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1357188324393237</v>
+        <v>0.1573904658075265</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3238861817991441</v>
+        <v>0.34373548023703</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2305440308555026</v>
+        <v>0.2686823638252597</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.87467165187942</v>
+        <v>12.04538085608581</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.858687823638364</v>
+        <v>9.759597665075439</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11.92659195043164</v>
+        <v>12.23313817748266</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12.31148806195659</v>
+        <v>12.67520225999668</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7650538228351274</v>
+        <v>0.7974784509235988</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8886375938383497</v>
+        <v>0.8990169295203619</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.13814986931147</v>
+        <v>1.176513105899954</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7662476535451302</v>
+        <v>0.8210837369311346</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>8.182353356095144</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6.964137367832166</v>
+        <v>6.964137367832168</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8305829088277248</v>
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.9779696096485</v>
+        <v>11.08851145908401</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.01144149832334</v>
+        <v>8.267382033490589</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.152791713852592</v>
+        <v>6.222537492970808</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.119903582849525</v>
+        <v>5.155744872896756</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6584149523778395</v>
+        <v>0.6710372194042798</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4548578687550311</v>
+        <v>0.4703084343590953</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3780996856608178</v>
+        <v>0.375864563222876</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.2758452755205357</v>
+        <v>0.2865073043861547</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.87898818551388</v>
+        <v>15.20256152123597</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.07900562218968</v>
+        <v>12.0332238058413</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.16616407073086</v>
+        <v>10.08648549481465</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.487459508352972</v>
+        <v>8.745911252242347</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.00731200802195</v>
+        <v>1.039254423009715</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7750026678722658</v>
+        <v>0.7717546664131014</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6984632607047653</v>
+        <v>0.6877108972765003</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5166099012558597</v>
+        <v>0.5403791715951901</v>
       </c>
     </row>
     <row r="31">
